--- a/excelsheet/outputExcel.xlsx
+++ b/excelsheet/outputExcel.xlsx
@@ -20,7 +20,7 @@
     <t>Hunt Auto Detailing</t>
   </si>
   <si>
-    <t>07942680957</t>
+    <t>07947103541</t>
   </si>
   <si>
     <t>5.0</t>
@@ -32,28 +32,28 @@
     <t>The Detailing Mafia Ecr</t>
   </si>
   <si>
-    <t>07942680920</t>
-  </si>
-  <si>
-    <t>166 Ratings</t>
+    <t>07947103305</t>
+  </si>
+  <si>
+    <t>169 Ratings</t>
   </si>
   <si>
     <t>Ar Auto Detailer</t>
   </si>
   <si>
-    <t>07947105051</t>
+    <t>07947103048</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>658 Ratings</t>
+    <t>666 Ratings</t>
   </si>
   <si>
     <t>Futurex Car Care</t>
   </si>
   <si>
-    <t>07942680995</t>
+    <t>07947103632</t>
   </si>
   <si>
     <t>572 Ratings</t>
@@ -62,7 +62,7 @@
     <t>Wheelz Auto Detailing</t>
   </si>
   <si>
-    <t>07947105194</t>
+    <t/>
   </si>
   <si>
     <t>535 Ratings</t>
